--- a/data/pca/factorExposure/factorExposure_2009-12-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-12-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.004015640940554959</v>
+        <v>0.01683781058727699</v>
       </c>
       <c r="C2">
-        <v>-0.01079428404483752</v>
+        <v>-0.001025646097913821</v>
       </c>
       <c r="D2">
-        <v>0.003786583491831103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.007424768969512273</v>
+      </c>
+      <c r="E2">
+        <v>-0.0002572224129964085</v>
+      </c>
+      <c r="F2">
+        <v>-0.01141358708683379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.03143163423934171</v>
+        <v>0.09342303303905133</v>
       </c>
       <c r="C4">
-        <v>-0.1165512750402068</v>
+        <v>-0.01504101626112549</v>
       </c>
       <c r="D4">
-        <v>-0.02723861481753275</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08447272286008373</v>
+      </c>
+      <c r="E4">
+        <v>-0.02828409388852006</v>
+      </c>
+      <c r="F4">
+        <v>0.03081662402174979</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.04061234112462862</v>
+        <v>0.1577236174881066</v>
       </c>
       <c r="C6">
-        <v>-0.1195146306307338</v>
+        <v>-0.0252789840526976</v>
       </c>
       <c r="D6">
-        <v>0.03917834690842266</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.020734304202416</v>
+      </c>
+      <c r="E6">
+        <v>-0.01106642676254397</v>
+      </c>
+      <c r="F6">
+        <v>0.04481392137419069</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.01215715888227779</v>
+        <v>0.06259307167244699</v>
       </c>
       <c r="C7">
-        <v>-0.086071486917461</v>
+        <v>0.001827949751939283</v>
       </c>
       <c r="D7">
-        <v>0.006672603307762673</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05343926196313185</v>
+      </c>
+      <c r="E7">
+        <v>-0.01003216142253335</v>
+      </c>
+      <c r="F7">
+        <v>0.04804753739119936</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.0006326795484109812</v>
+        <v>0.05680915720987547</v>
       </c>
       <c r="C8">
-        <v>-0.07052087550548079</v>
+        <v>0.01393361819452621</v>
       </c>
       <c r="D8">
-        <v>0.02933914010304508</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03481966920539226</v>
+      </c>
+      <c r="E8">
+        <v>-0.01803216504428577</v>
+      </c>
+      <c r="F8">
+        <v>-0.02763939652482845</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.02620600442029983</v>
+        <v>0.07093235255057219</v>
       </c>
       <c r="C9">
-        <v>-0.09707592051735907</v>
+        <v>-0.01066803475291648</v>
       </c>
       <c r="D9">
-        <v>-0.02893902136060727</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08680226526935744</v>
+      </c>
+      <c r="E9">
+        <v>-0.02306622312179348</v>
+      </c>
+      <c r="F9">
+        <v>0.04776311271310086</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.01290302240786459</v>
+        <v>0.09606847296359401</v>
       </c>
       <c r="C10">
-        <v>-0.02766232565367487</v>
+        <v>-0.02101174372295048</v>
       </c>
       <c r="D10">
-        <v>0.1211404096391385</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1717333937946449</v>
+      </c>
+      <c r="E10">
+        <v>0.03635074013783404</v>
+      </c>
+      <c r="F10">
+        <v>-0.05437855102262742</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.03112693884283119</v>
+        <v>0.08767018098140296</v>
       </c>
       <c r="C11">
-        <v>-0.1006012050509068</v>
+        <v>-0.01022776151264942</v>
       </c>
       <c r="D11">
-        <v>-0.03654925998992604</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1159085416054232</v>
+      </c>
+      <c r="E11">
+        <v>-0.04560278576921112</v>
+      </c>
+      <c r="F11">
+        <v>0.02234033069441651</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.02885344939149952</v>
+        <v>0.09203364923699447</v>
       </c>
       <c r="C12">
-        <v>-0.1118007657583246</v>
+        <v>-0.007391876822195568</v>
       </c>
       <c r="D12">
-        <v>-0.0316756006087141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1314909663551866</v>
+      </c>
+      <c r="E12">
+        <v>-0.0472832073439431</v>
+      </c>
+      <c r="F12">
+        <v>0.02707121042950264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.01005611649832798</v>
+        <v>0.04164354825830538</v>
       </c>
       <c r="C13">
-        <v>-0.04052652569448508</v>
+        <v>-0.00291762753985251</v>
       </c>
       <c r="D13">
-        <v>-0.02018752375542594</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05208096563367567</v>
+      </c>
+      <c r="E13">
+        <v>0.008591507399843599</v>
+      </c>
+      <c r="F13">
+        <v>0.003314704058104738</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01631815346682153</v>
+        <v>0.02265733978782403</v>
       </c>
       <c r="C14">
-        <v>-0.02325454062767212</v>
+        <v>-0.01366801201334026</v>
       </c>
       <c r="D14">
-        <v>0.003085505273239294</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03322407676181239</v>
+      </c>
+      <c r="E14">
+        <v>-0.01744906151492292</v>
+      </c>
+      <c r="F14">
+        <v>0.01387947356165403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01094352510266465</v>
+        <v>0.03278277183627203</v>
       </c>
       <c r="C15">
-        <v>-0.02820707314533786</v>
+        <v>-0.00465694021978579</v>
       </c>
       <c r="D15">
-        <v>-0.007434797253276029</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04517582956931053</v>
+      </c>
+      <c r="E15">
+        <v>-0.006027499721487675</v>
+      </c>
+      <c r="F15">
+        <v>0.02298160324940864</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.02068605314886395</v>
+        <v>0.07398156166764291</v>
       </c>
       <c r="C16">
-        <v>-0.1030199708303766</v>
+        <v>-0.001369982623135485</v>
       </c>
       <c r="D16">
-        <v>-0.02419865449427165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.125310538053532</v>
+      </c>
+      <c r="E16">
+        <v>-0.0615455741489937</v>
+      </c>
+      <c r="F16">
+        <v>0.02518089418618089</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03175172225359616</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003467070931145198</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01978990310956301</v>
+      </c>
+      <c r="E18">
+        <v>0.007195310284056069</v>
+      </c>
+      <c r="F18">
+        <v>-0.003645215699339807</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01317874455448583</v>
+        <v>0.06110146869460954</v>
       </c>
       <c r="C20">
-        <v>-0.06224816249784266</v>
+        <v>-2.09856063681973e-05</v>
       </c>
       <c r="D20">
-        <v>0.003670712903934807</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07715671262957251</v>
+      </c>
+      <c r="E20">
+        <v>-0.05548655337062969</v>
+      </c>
+      <c r="F20">
+        <v>0.0234551207175784</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.0138361326487665</v>
+        <v>0.04020869878849432</v>
       </c>
       <c r="C21">
-        <v>-0.02577585023415439</v>
+        <v>-0.006241031025811364</v>
       </c>
       <c r="D21">
-        <v>-0.001912336102878538</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03789879846698996</v>
+      </c>
+      <c r="E21">
+        <v>0.005153585342699869</v>
+      </c>
+      <c r="F21">
+        <v>-0.02347958320639893</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.005826069727070855</v>
+        <v>0.04385513155484209</v>
       </c>
       <c r="C22">
-        <v>-0.03154099110325927</v>
+        <v>-0.0007193394773253082</v>
       </c>
       <c r="D22">
-        <v>0.03524401493517375</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.003812235177129685</v>
+      </c>
+      <c r="E22">
+        <v>-0.0300396525719699</v>
+      </c>
+      <c r="F22">
+        <v>-0.0359472249703372</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.005813091908000031</v>
+        <v>0.0438407304494994</v>
       </c>
       <c r="C23">
-        <v>-0.03147865709507238</v>
+        <v>-0.0007150458138029216</v>
       </c>
       <c r="D23">
-        <v>0.03532318812368324</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.003816934838592108</v>
+      </c>
+      <c r="E23">
+        <v>-0.030241199869705</v>
+      </c>
+      <c r="F23">
+        <v>-0.03590993721872047</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.02039489352227615</v>
+        <v>0.08009003438077505</v>
       </c>
       <c r="C24">
-        <v>-0.106908302545733</v>
+        <v>-0.001831329380123935</v>
       </c>
       <c r="D24">
-        <v>-0.0310865326272212</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1204556620911681</v>
+      </c>
+      <c r="E24">
+        <v>-0.0487999546465463</v>
+      </c>
+      <c r="F24">
+        <v>0.02681329480138262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.02621408933064807</v>
+        <v>0.08503365230214428</v>
       </c>
       <c r="C25">
-        <v>-0.1059925203781827</v>
+        <v>-0.004102181314143489</v>
       </c>
       <c r="D25">
-        <v>-0.02854881339024276</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1090158904115179</v>
+      </c>
+      <c r="E25">
+        <v>-0.03232174840641385</v>
+      </c>
+      <c r="F25">
+        <v>0.0273159448371677</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.02526938471831009</v>
+        <v>0.0581747688504676</v>
       </c>
       <c r="C26">
-        <v>-0.05104457124277729</v>
+        <v>-0.01432194463664021</v>
       </c>
       <c r="D26">
-        <v>0.01574371821630113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04027495285608225</v>
+      </c>
+      <c r="E26">
+        <v>-0.02838613381555132</v>
+      </c>
+      <c r="F26">
+        <v>-0.00883390965643832</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.008353011394633101</v>
+        <v>0.1406486871267165</v>
       </c>
       <c r="C28">
-        <v>-0.04434943322239957</v>
+        <v>-0.02033195260687766</v>
       </c>
       <c r="D28">
-        <v>0.200298872074309</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2610595102572541</v>
+      </c>
+      <c r="E28">
+        <v>0.06691053415308261</v>
+      </c>
+      <c r="F28">
+        <v>0.009637477998629865</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.01305281470902027</v>
+        <v>0.02774163256692598</v>
       </c>
       <c r="C29">
-        <v>-0.02714231294199157</v>
+        <v>-0.008105805691834505</v>
       </c>
       <c r="D29">
-        <v>0.005074298813829295</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03200431386218331</v>
+      </c>
+      <c r="E29">
+        <v>-0.01150543972364967</v>
+      </c>
+      <c r="F29">
+        <v>-0.01090816105404965</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.01709410379889633</v>
+        <v>0.06105409637036667</v>
       </c>
       <c r="C30">
-        <v>-0.12734556490734</v>
+        <v>-0.003023958251999999</v>
       </c>
       <c r="D30">
-        <v>-0.0214411500201957</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08943527028772762</v>
+      </c>
+      <c r="E30">
+        <v>-0.01940045441800594</v>
+      </c>
+      <c r="F30">
+        <v>0.08379794703981093</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02200730296497208</v>
+        <v>0.04982499722128875</v>
       </c>
       <c r="C31">
-        <v>-0.03514664540582657</v>
+        <v>-0.01505783929061437</v>
       </c>
       <c r="D31">
-        <v>0.0002879735274409865</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02521719712995866</v>
+      </c>
+      <c r="E31">
+        <v>-0.02751710925215714</v>
+      </c>
+      <c r="F31">
+        <v>-0.002538030798277284</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.008880573457865092</v>
+        <v>0.05022168902423069</v>
       </c>
       <c r="C32">
-        <v>-0.05716104197036635</v>
+        <v>0.001704185846599605</v>
       </c>
       <c r="D32">
-        <v>0.02462722511814614</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03618157006227158</v>
+      </c>
+      <c r="E32">
+        <v>-0.03093228153842988</v>
+      </c>
+      <c r="F32">
+        <v>0.002892819704474756</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02320317276896803</v>
+        <v>0.08912643297905805</v>
       </c>
       <c r="C33">
-        <v>-0.1077432107724715</v>
+        <v>-0.007415873605744324</v>
       </c>
       <c r="D33">
-        <v>-0.02604828896947091</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.09944923152632848</v>
+      </c>
+      <c r="E33">
+        <v>-0.04382196042157423</v>
+      </c>
+      <c r="F33">
+        <v>0.03593482619433701</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.02880015234748106</v>
+        <v>0.06804877132744355</v>
       </c>
       <c r="C34">
-        <v>-0.09421944004904988</v>
+        <v>-0.01037000041888162</v>
       </c>
       <c r="D34">
-        <v>-0.0217299662026035</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1068507299280591</v>
+      </c>
+      <c r="E34">
+        <v>-0.03425231051161551</v>
+      </c>
+      <c r="F34">
+        <v>0.03437031579434909</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.00382753920213891</v>
+        <v>0.02427533555384074</v>
       </c>
       <c r="C35">
-        <v>-0.01398628831736613</v>
+        <v>-0.002354827632159708</v>
       </c>
       <c r="D35">
-        <v>-0.001981538247999801</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01167638574983636</v>
+      </c>
+      <c r="E35">
+        <v>-0.01162457712595192</v>
+      </c>
+      <c r="F35">
+        <v>0.0008684647521816692</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.01119573160922081</v>
+        <v>0.02793923039117855</v>
       </c>
       <c r="C36">
-        <v>-0.02305614298620802</v>
+        <v>-0.007004409340067633</v>
       </c>
       <c r="D36">
-        <v>-0.008189001180071665</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03936560586677039</v>
+      </c>
+      <c r="E36">
+        <v>-0.01640858136494694</v>
+      </c>
+      <c r="F36">
+        <v>0.01513162002731473</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0002814794476737053</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>6.365683306019327e-05</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.0004083338102768249</v>
+      </c>
+      <c r="E37">
+        <v>0.0004525254448552275</v>
+      </c>
+      <c r="F37">
+        <v>0.0007082752893787554</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0006677758066132135</v>
+        <v>0.001554040339225747</v>
       </c>
       <c r="C38">
-        <v>-0.00424375426776231</v>
+        <v>-0.0002639472985466598</v>
       </c>
       <c r="D38">
-        <v>0.002925749066645726</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0003587108468820032</v>
+      </c>
+      <c r="E38">
+        <v>-0.0003346725508285299</v>
+      </c>
+      <c r="F38">
+        <v>-0.0008421139606404099</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.04437890935278978</v>
+        <v>0.1052267989435674</v>
       </c>
       <c r="C39">
-        <v>-0.1608733286396925</v>
+        <v>-0.01533917371035568</v>
       </c>
       <c r="D39">
-        <v>-0.04927947321447988</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.153975606275275</v>
+      </c>
+      <c r="E39">
+        <v>-0.05892854267812482</v>
+      </c>
+      <c r="F39">
+        <v>0.02953409200570342</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01146860431678595</v>
+        <v>0.04098217868019011</v>
       </c>
       <c r="C40">
-        <v>-0.01214878754859487</v>
+        <v>-0.006644668852107575</v>
       </c>
       <c r="D40">
-        <v>0.009698054615842559</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03271706304123891</v>
+      </c>
+      <c r="E40">
+        <v>-0.003505707765657008</v>
+      </c>
+      <c r="F40">
+        <v>-0.01524296344029733</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.01162959901058858</v>
+        <v>0.02788721207497049</v>
       </c>
       <c r="C41">
-        <v>-0.01852382829481114</v>
+        <v>-0.006710220477751543</v>
       </c>
       <c r="D41">
-        <v>0.01468388597998287</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01031811290102662</v>
+      </c>
+      <c r="E41">
+        <v>-0.01231192716428411</v>
+      </c>
+      <c r="F41">
+        <v>-0.006535349970076511</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.01355791369570965</v>
+        <v>0.04086407102407985</v>
       </c>
       <c r="C43">
-        <v>-0.02778948807664198</v>
+        <v>-0.006762745396382048</v>
       </c>
       <c r="D43">
-        <v>0.008742311788940941</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0195965140230611</v>
+      </c>
+      <c r="E43">
+        <v>-0.02451153558554911</v>
+      </c>
+      <c r="F43">
+        <v>-0.01272533338190785</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.03351891337888704</v>
+        <v>0.07992956871495462</v>
       </c>
       <c r="C44">
-        <v>-0.1249249841434769</v>
+        <v>-0.01961881652693238</v>
       </c>
       <c r="D44">
-        <v>0.001642497107737413</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09735058662707104</v>
+      </c>
+      <c r="E44">
+        <v>-0.06448045701652476</v>
+      </c>
+      <c r="F44">
+        <v>0.1568794886083034</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.005599412020614851</v>
+        <v>0.02340617085631422</v>
       </c>
       <c r="C46">
-        <v>-0.006684337929897105</v>
+        <v>-0.003475188891300512</v>
       </c>
       <c r="D46">
-        <v>0.02197339590505216</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01310199458372582</v>
+      </c>
+      <c r="E46">
+        <v>-0.02231174968140094</v>
+      </c>
+      <c r="F46">
+        <v>-0.005130791164228389</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.01132615601960895</v>
+        <v>0.05123551772279917</v>
       </c>
       <c r="C47">
-        <v>-0.03298630288918483</v>
+        <v>-0.00328268809472009</v>
       </c>
       <c r="D47">
-        <v>0.03049638612279545</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01395629056178625</v>
+      </c>
+      <c r="E47">
+        <v>-0.02335698355464466</v>
+      </c>
+      <c r="F47">
+        <v>-0.03348901745255669</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01283579158919842</v>
+        <v>0.05006364043109423</v>
       </c>
       <c r="C48">
-        <v>-0.04842200736541386</v>
+        <v>-0.002250074138910922</v>
       </c>
       <c r="D48">
-        <v>-0.01973474779825881</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.049788351725708</v>
+      </c>
+      <c r="E48">
+        <v>0.006337328754513205</v>
+      </c>
+      <c r="F48">
+        <v>0.009658926394202757</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.04181362678638072</v>
+        <v>0.1999254636992554</v>
       </c>
       <c r="C49">
-        <v>-0.2197028663736777</v>
+        <v>-0.01852685896673956</v>
       </c>
       <c r="D49">
-        <v>0.05854668278640536</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.007669532372395304</v>
+      </c>
+      <c r="E49">
+        <v>-0.03065771656062635</v>
+      </c>
+      <c r="F49">
+        <v>0.039604632525945</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.01892686909268999</v>
+        <v>0.05072584164928385</v>
       </c>
       <c r="C50">
-        <v>-0.03914379816694159</v>
+        <v>-0.01111223218261669</v>
       </c>
       <c r="D50">
-        <v>0.006500261761330658</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.023713149108559</v>
+      </c>
+      <c r="E50">
+        <v>-0.02938851871409447</v>
+      </c>
+      <c r="F50">
+        <v>0.008978793487906145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.000154749045616779</v>
+        <v>0.0003075801818284548</v>
       </c>
       <c r="C51">
-        <v>-0.0005553821947123773</v>
+        <v>-8.807660892845933e-05</v>
       </c>
       <c r="D51">
-        <v>0.001184909620816548</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0005598184428733206</v>
+      </c>
+      <c r="E51">
+        <v>0.0005420037145498046</v>
+      </c>
+      <c r="F51">
+        <v>0.002433155610788679</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.03364068199879449</v>
+        <v>0.1462582270446103</v>
       </c>
       <c r="C52">
-        <v>-0.1529296393508414</v>
+        <v>-0.01532376118593888</v>
       </c>
       <c r="D52">
-        <v>-0.02092500231686259</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.0450607833923256</v>
+      </c>
+      <c r="E52">
+        <v>-0.02027672436347425</v>
+      </c>
+      <c r="F52">
+        <v>0.04082424132980633</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.03485863237855196</v>
+        <v>0.1721882790041193</v>
       </c>
       <c r="C53">
-        <v>-0.1741490818030834</v>
+        <v>-0.0185526169196715</v>
       </c>
       <c r="D53">
-        <v>0.01333326778839744</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.006121456995531593</v>
+      </c>
+      <c r="E53">
+        <v>-0.03106853681431014</v>
+      </c>
+      <c r="F53">
+        <v>0.07184723240497637</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01638247085762713</v>
+        <v>0.02272093604450548</v>
       </c>
       <c r="C54">
-        <v>-0.0369169195911447</v>
+        <v>-0.01243849375972548</v>
       </c>
       <c r="D54">
-        <v>0.002888315164146111</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03352354069533103</v>
+      </c>
+      <c r="E54">
+        <v>-0.01822990321948612</v>
+      </c>
+      <c r="F54">
+        <v>-0.003034833198421129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.02659020037601592</v>
+        <v>0.1140171581735886</v>
       </c>
       <c r="C55">
-        <v>-0.09076574957832485</v>
+        <v>-0.0162421171245703</v>
       </c>
       <c r="D55">
-        <v>0.00133279214127379</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.009746802487894975</v>
+      </c>
+      <c r="E55">
+        <v>-0.02786270401542451</v>
+      </c>
+      <c r="F55">
+        <v>0.04631195871071278</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.03564383816981041</v>
+        <v>0.176866477923811</v>
       </c>
       <c r="C56">
-        <v>-0.1608967188981908</v>
+        <v>-0.01603084799794792</v>
       </c>
       <c r="D56">
-        <v>0.02197878918622304</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.001203109261133991</v>
+      </c>
+      <c r="E56">
+        <v>-0.03543009491658498</v>
+      </c>
+      <c r="F56">
+        <v>0.05017646192792261</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.01313266573914916</v>
+        <v>0.04589063739106559</v>
       </c>
       <c r="C58">
-        <v>-0.05006291165100869</v>
+        <v>-0.0003188599091969914</v>
       </c>
       <c r="D58">
-        <v>-0.01297448844878926</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.06729614116311153</v>
+      </c>
+      <c r="E58">
+        <v>-0.02707201568141305</v>
+      </c>
+      <c r="F58">
+        <v>-0.03526485064062348</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.01756281344848834</v>
+        <v>0.1682397877059764</v>
       </c>
       <c r="C59">
-        <v>-0.1028551882231942</v>
+        <v>-0.020935665859972</v>
       </c>
       <c r="D59">
-        <v>0.213726073154447</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2177301447661498</v>
+      </c>
+      <c r="E59">
+        <v>0.04544573218739091</v>
+      </c>
+      <c r="F59">
+        <v>-0.03410811337454755</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.03234741614670611</v>
+        <v>0.2311895351039096</v>
       </c>
       <c r="C60">
-        <v>-0.276109472650051</v>
+        <v>0.003194602208507584</v>
       </c>
       <c r="D60">
-        <v>-0.001609879351772031</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04255268645555681</v>
+      </c>
+      <c r="E60">
+        <v>-0.01128709996585834</v>
+      </c>
+      <c r="F60">
+        <v>-0.006563851098415592</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.03161997379882529</v>
+        <v>0.08191300326233311</v>
       </c>
       <c r="C61">
-        <v>-0.120847352489252</v>
+        <v>-0.0114368730807291</v>
       </c>
       <c r="D61">
-        <v>-0.0204807396918305</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1161544588554925</v>
+      </c>
+      <c r="E61">
+        <v>-0.0382050158568359</v>
+      </c>
+      <c r="F61">
+        <v>0.01204511500154131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.03770139538071555</v>
+        <v>0.1706884142822883</v>
       </c>
       <c r="C62">
-        <v>-0.1644558425509855</v>
+        <v>-0.01951424021642161</v>
       </c>
       <c r="D62">
-        <v>0.01742342038876675</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.006678347801118806</v>
+      </c>
+      <c r="E62">
+        <v>-0.03494307091152765</v>
+      </c>
+      <c r="F62">
+        <v>0.0323801145878642</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01224917888939394</v>
+        <v>0.04567805319589485</v>
       </c>
       <c r="C63">
-        <v>-0.05009486739014016</v>
+        <v>-0.001787092704905302</v>
       </c>
       <c r="D63">
-        <v>-0.01494426746789771</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05865686303464459</v>
+      </c>
+      <c r="E63">
+        <v>-0.02167985457540841</v>
+      </c>
+      <c r="F63">
+        <v>0.005828065321197703</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.02551494027430369</v>
+        <v>0.1106329857662916</v>
       </c>
       <c r="C64">
-        <v>-0.09606099233184694</v>
+        <v>-0.01089013928559034</v>
       </c>
       <c r="D64">
-        <v>0.008221240646064446</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04291434633056418</v>
+      </c>
+      <c r="E64">
+        <v>-0.02414435057582462</v>
+      </c>
+      <c r="F64">
+        <v>0.02581440734400188</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.04165888346133565</v>
+        <v>0.1477314821485749</v>
       </c>
       <c r="C65">
-        <v>-0.1108722461272459</v>
+        <v>-0.03248943130744567</v>
       </c>
       <c r="D65">
-        <v>0.03083316096253738</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04018565938810102</v>
+      </c>
+      <c r="E65">
+        <v>-0.004666393071392895</v>
+      </c>
+      <c r="F65">
+        <v>0.03880118073312022</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.0424666073686716</v>
+        <v>0.1247454282075996</v>
       </c>
       <c r="C66">
-        <v>-0.1866818695978639</v>
+        <v>-0.0134140916743818</v>
       </c>
       <c r="D66">
-        <v>-0.04975352808514154</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1424218847128269</v>
+      </c>
+      <c r="E66">
+        <v>-0.06617913480676893</v>
+      </c>
+      <c r="F66">
+        <v>0.03172883469840253</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.01514361987365265</v>
+        <v>0.06081728134317283</v>
       </c>
       <c r="C67">
-        <v>-0.07506619736375612</v>
+        <v>-0.003060928305272833</v>
       </c>
       <c r="D67">
-        <v>-0.01255459947989191</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05526563024825486</v>
+      </c>
+      <c r="E67">
+        <v>-0.01733728799518333</v>
+      </c>
+      <c r="F67">
+        <v>-0.03397291090447147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.01816583834986862</v>
+        <v>0.117124891468435</v>
       </c>
       <c r="C68">
-        <v>-0.02955471489130312</v>
+        <v>-0.03144571332966795</v>
       </c>
       <c r="D68">
-        <v>0.1782973201757961</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.261472695862158</v>
+      </c>
+      <c r="E68">
+        <v>0.08675051872592243</v>
+      </c>
+      <c r="F68">
+        <v>0.005214345133913265</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.006569435334159592</v>
+        <v>0.03980896470669058</v>
       </c>
       <c r="C69">
-        <v>-0.03576597150743453</v>
+        <v>-0.001299640780201395</v>
       </c>
       <c r="D69">
-        <v>0.01192980398260459</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007176268698700906</v>
+      </c>
+      <c r="E69">
+        <v>-0.02278487729348079</v>
+      </c>
+      <c r="F69">
+        <v>-0.0006553962183318478</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.000112701743017504</v>
+        <v>0.06583876210041865</v>
       </c>
       <c r="C70">
-        <v>-0.03641744509354393</v>
+        <v>0.02806360646530057</v>
       </c>
       <c r="D70">
-        <v>-0.003066118075729879</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02473035216527374</v>
+      </c>
+      <c r="E70">
+        <v>0.03955075551541018</v>
+      </c>
+      <c r="F70">
+        <v>-0.185966833313385</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.02230042500322269</v>
+        <v>0.1369248934182988</v>
       </c>
       <c r="C71">
-        <v>-0.04077417644864209</v>
+        <v>-0.03582002692724785</v>
       </c>
       <c r="D71">
-        <v>0.1916938539231942</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2734315551114771</v>
+      </c>
+      <c r="E71">
+        <v>0.09623107651888431</v>
+      </c>
+      <c r="F71">
+        <v>0.01178824729063616</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.03874016027953742</v>
+        <v>0.1421164349000352</v>
       </c>
       <c r="C72">
-        <v>-0.1255934880100667</v>
+        <v>-0.02588492493782396</v>
       </c>
       <c r="D72">
-        <v>0.03791005084332635</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.001232748664669913</v>
+      </c>
+      <c r="E72">
+        <v>-0.03815378374166703</v>
+      </c>
+      <c r="F72">
+        <v>0.03364721581008178</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.03697702346419956</v>
+        <v>0.2007725506603999</v>
       </c>
       <c r="C73">
-        <v>-0.2109740743720127</v>
+        <v>-0.01206144907069857</v>
       </c>
       <c r="D73">
-        <v>0.04882416331847343</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01741400430732807</v>
+      </c>
+      <c r="E73">
+        <v>-0.06376411550300422</v>
+      </c>
+      <c r="F73">
+        <v>0.03933415533622754</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.02268428703617543</v>
+        <v>0.09468098372871858</v>
       </c>
       <c r="C74">
-        <v>-0.1121163682816621</v>
+        <v>-0.01301269883390256</v>
       </c>
       <c r="D74">
-        <v>0.02552683110322107</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01696594127725349</v>
+      </c>
+      <c r="E74">
+        <v>-0.0434259156820207</v>
+      </c>
+      <c r="F74">
+        <v>0.05592505449925567</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.0440969645469855</v>
+        <v>0.1282052634466407</v>
       </c>
       <c r="C75">
-        <v>-0.1347790830048293</v>
+        <v>-0.02747636917737856</v>
       </c>
       <c r="D75">
-        <v>0.02672673471724395</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.0302995399117415</v>
+      </c>
+      <c r="E75">
+        <v>-0.05790999936916561</v>
+      </c>
+      <c r="F75">
+        <v>0.01785432144673833</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.000142727874312014</v>
+        <v>0.0004185984795480769</v>
       </c>
       <c r="C76">
-        <v>-0.001325370167073858</v>
+        <v>-0.0001351108464972378</v>
       </c>
       <c r="D76">
-        <v>0.001914267410315694</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0007688765865245542</v>
+      </c>
+      <c r="E76">
+        <v>0.0002642754029775029</v>
+      </c>
+      <c r="F76">
+        <v>0.0004937595010301989</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.02626202067215769</v>
+        <v>0.0863066896076459</v>
       </c>
       <c r="C77">
-        <v>-0.101121864953471</v>
+        <v>-0.007909891065460448</v>
       </c>
       <c r="D77">
-        <v>-0.04816749732331612</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1137354466289856</v>
+      </c>
+      <c r="E77">
+        <v>-0.03935460387582924</v>
+      </c>
+      <c r="F77">
+        <v>0.03295421870340686</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.05624766495254988</v>
+        <v>0.09996322365145982</v>
       </c>
       <c r="C78">
-        <v>-0.1391220152503805</v>
+        <v>-0.03909110988744884</v>
       </c>
       <c r="D78">
-        <v>0.01158659542369502</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1167978669838025</v>
+      </c>
+      <c r="E78">
+        <v>-0.07417730739498644</v>
+      </c>
+      <c r="F78">
+        <v>0.045533803471725</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.03873622005288974</v>
+        <v>0.1645982332199457</v>
       </c>
       <c r="C79">
-        <v>-0.144684581788243</v>
+        <v>-0.02211724433993278</v>
       </c>
       <c r="D79">
-        <v>0.02820459305926793</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01496404645598232</v>
+      </c>
+      <c r="E79">
+        <v>-0.04589347752755524</v>
+      </c>
+      <c r="F79">
+        <v>0.01028479964767386</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.01037614497351629</v>
+        <v>0.08264305415654997</v>
       </c>
       <c r="C80">
-        <v>-0.08360098809714397</v>
+        <v>0.001044571548025594</v>
       </c>
       <c r="D80">
-        <v>0.005409285640941459</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05658120002329588</v>
+      </c>
+      <c r="E80">
+        <v>-0.03672651403621736</v>
+      </c>
+      <c r="F80">
+        <v>-0.02367495391594011</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.04583679859450697</v>
+        <v>0.1216416006433481</v>
       </c>
       <c r="C81">
-        <v>-0.1337632708301598</v>
+        <v>-0.03144806742258002</v>
       </c>
       <c r="D81">
-        <v>0.01602726253121072</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01589981691302065</v>
+      </c>
+      <c r="E81">
+        <v>-0.05750896997052836</v>
+      </c>
+      <c r="F81">
+        <v>0.01570716135232935</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.04087963916075874</v>
+        <v>0.1663102174256464</v>
       </c>
       <c r="C82">
-        <v>-0.1651430645817637</v>
+        <v>-0.02388359195297677</v>
       </c>
       <c r="D82">
-        <v>0.01998427847015153</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.003889809338642708</v>
+      </c>
+      <c r="E82">
+        <v>-0.02774439859002245</v>
+      </c>
+      <c r="F82">
+        <v>0.07924185039757539</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.01808901995487441</v>
+        <v>0.06012984607820509</v>
       </c>
       <c r="C83">
-        <v>-0.06751125639380635</v>
+        <v>-0.00272525429729447</v>
       </c>
       <c r="D83">
-        <v>-0.007169755207941247</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05117561769313621</v>
+      </c>
+      <c r="E83">
+        <v>-0.005146185600592016</v>
+      </c>
+      <c r="F83">
+        <v>-0.03178523157073777</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.02719662327745947</v>
+        <v>0.05862251699999489</v>
       </c>
       <c r="C84">
-        <v>-0.07919803523884257</v>
+        <v>-0.01084310959910439</v>
       </c>
       <c r="D84">
-        <v>-0.03090496634007739</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06396490951720492</v>
+      </c>
+      <c r="E84">
+        <v>-0.006424204376811642</v>
+      </c>
+      <c r="F84">
+        <v>0.00417641500007408</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.04001745515395871</v>
+        <v>0.1364854818156903</v>
       </c>
       <c r="C85">
-        <v>-0.1199556570750254</v>
+        <v>-0.02737584908514476</v>
       </c>
       <c r="D85">
-        <v>0.01538832304412708</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01125280974517141</v>
+      </c>
+      <c r="E85">
+        <v>-0.03853043216183743</v>
+      </c>
+      <c r="F85">
+        <v>0.04424038616770968</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.01166853315368614</v>
+        <v>0.09367320444880228</v>
       </c>
       <c r="C86">
-        <v>-0.08338002755724679</v>
+        <v>0.006563632671387915</v>
       </c>
       <c r="D86">
-        <v>0.1549990317071768</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04265396235723709</v>
+      </c>
+      <c r="E86">
+        <v>-0.214938836567253</v>
+      </c>
+      <c r="F86">
+        <v>-0.9076897343104358</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.04036411789862795</v>
+        <v>0.09689627860309394</v>
       </c>
       <c r="C87">
-        <v>-0.1075015391594109</v>
+        <v>-0.01932266703213939</v>
       </c>
       <c r="D87">
-        <v>-0.06045496375506969</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09672896524430352</v>
+      </c>
+      <c r="E87">
+        <v>0.05058827174073598</v>
+      </c>
+      <c r="F87">
+        <v>0.05425694036391064</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.01422298410648644</v>
+        <v>0.06064431768713047</v>
       </c>
       <c r="C88">
-        <v>-0.05996267976234863</v>
+        <v>-0.002033669034471394</v>
       </c>
       <c r="D88">
-        <v>-0.002170217851323392</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04955595010215118</v>
+      </c>
+      <c r="E88">
+        <v>-0.02442672806862206</v>
+      </c>
+      <c r="F88">
+        <v>0.01197118993469755</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.003729797621624714</v>
+        <v>0.1339095615711104</v>
       </c>
       <c r="C89">
-        <v>-0.05705379888647014</v>
+        <v>-0.01315532335458591</v>
       </c>
       <c r="D89">
-        <v>0.2222647325634567</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2504530997814257</v>
+      </c>
+      <c r="E89">
+        <v>0.09050245832742773</v>
+      </c>
+      <c r="F89">
+        <v>-0.007797751679843892</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.02103064993036682</v>
+        <v>0.1507685783138409</v>
       </c>
       <c r="C90">
-        <v>-0.04514457744622234</v>
+        <v>-0.03202055295739981</v>
       </c>
       <c r="D90">
-        <v>0.1993706383307095</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2692540324192507</v>
+      </c>
+      <c r="E90">
+        <v>0.1119940339850605</v>
+      </c>
+      <c r="F90">
+        <v>-0.001580735123354791</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.02556146415411765</v>
+        <v>0.1204828350120917</v>
       </c>
       <c r="C91">
-        <v>-0.1000567908775908</v>
+        <v>-0.01863204329904921</v>
       </c>
       <c r="D91">
-        <v>0.0166147126712575</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01287942150666267</v>
+      </c>
+      <c r="E91">
+        <v>-0.05608764369817291</v>
+      </c>
+      <c r="F91">
+        <v>-0.003404918520277777</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.00681769736220714</v>
+        <v>0.1476839567231586</v>
       </c>
       <c r="C92">
-        <v>-0.06080544919013212</v>
+        <v>-0.023596348873263</v>
       </c>
       <c r="D92">
-        <v>0.2174390722856328</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2913119588434463</v>
+      </c>
+      <c r="E92">
+        <v>0.1006440273171987</v>
+      </c>
+      <c r="F92">
+        <v>-0.01351677801777932</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.01898545183558584</v>
+        <v>0.1521837650732787</v>
       </c>
       <c r="C93">
-        <v>-0.05725882412079399</v>
+        <v>-0.02778871919653403</v>
       </c>
       <c r="D93">
-        <v>0.2249342859504586</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2685140325448951</v>
+      </c>
+      <c r="E93">
+        <v>0.07702961142813927</v>
+      </c>
+      <c r="F93">
+        <v>0.002717568416376676</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.04289590981850747</v>
+        <v>0.1306470748222378</v>
       </c>
       <c r="C94">
-        <v>-0.14842442985859</v>
+        <v>-0.02432721220142493</v>
       </c>
       <c r="D94">
-        <v>0.01232864692611989</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.0428004632330355</v>
+      </c>
+      <c r="E94">
+        <v>-0.05751031091673191</v>
+      </c>
+      <c r="F94">
+        <v>0.03539626574955614</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.02733597782504506</v>
+        <v>0.1273674344774404</v>
       </c>
       <c r="C95">
-        <v>-0.1404588969807436</v>
+        <v>-0.00346235930651513</v>
       </c>
       <c r="D95">
-        <v>-0.02323511581200543</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09159925378719429</v>
+      </c>
+      <c r="E95">
+        <v>-0.04656745267180856</v>
+      </c>
+      <c r="F95">
+        <v>-0.006465107735454013</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.9718279872091209</v>
+        <v>0.1045396672074346</v>
       </c>
       <c r="C96">
-        <v>-0.217728762685841</v>
+        <v>0.9876880163786705</v>
       </c>
       <c r="D96">
-        <v>0.02531702885689606</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.04833564718649901</v>
+      </c>
+      <c r="E96">
+        <v>-0.05533330057598392</v>
+      </c>
+      <c r="F96">
+        <v>0.04233469895512696</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.005194342454328764</v>
+        <v>0.1931792941835369</v>
       </c>
       <c r="C97">
-        <v>-0.1538400817483482</v>
+        <v>0.007662580108375856</v>
       </c>
       <c r="D97">
-        <v>0.05985284750302045</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01774752902779754</v>
+      </c>
+      <c r="E97">
+        <v>-0.01811777313421398</v>
+      </c>
+      <c r="F97">
+        <v>-0.09180073074897634</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.0299118614504914</v>
+        <v>0.2042520346495671</v>
       </c>
       <c r="C98">
-        <v>-0.2015224151202887</v>
+        <v>-0.006793166095536112</v>
       </c>
       <c r="D98">
-        <v>0.01368942045112163</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.0143568984281483</v>
+      </c>
+      <c r="E98">
+        <v>0.08309853855406663</v>
+      </c>
+      <c r="F98">
+        <v>-0.09411692512064115</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.005126072234449111</v>
+        <v>0.05573655335118362</v>
       </c>
       <c r="C99">
-        <v>-0.06214638540580766</v>
+        <v>0.004975477066582329</v>
       </c>
       <c r="D99">
-        <v>0.006790722168745384</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.0397411328727391</v>
+      </c>
+      <c r="E99">
+        <v>-0.02304041797473918</v>
+      </c>
+      <c r="F99">
+        <v>0.001467509969801369</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.005053469368518144</v>
+        <v>0.1249513009648277</v>
       </c>
       <c r="C100">
-        <v>-0.172010044978164</v>
+        <v>0.05496728546351407</v>
       </c>
       <c r="D100">
-        <v>-0.7563407787436512</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3434809676666427</v>
+      </c>
+      <c r="E100">
+        <v>0.8893867809659246</v>
+      </c>
+      <c r="F100">
+        <v>-0.1431607883295261</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.01306549805100625</v>
+        <v>0.02767293709728141</v>
       </c>
       <c r="C101">
-        <v>-0.02716361557356393</v>
+        <v>-0.008118118723867302</v>
       </c>
       <c r="D101">
-        <v>0.005025982052945497</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03166608305583009</v>
+      </c>
+      <c r="E101">
+        <v>-0.01090673031527448</v>
+      </c>
+      <c r="F101">
+        <v>-0.01220377619321941</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
